--- a/GoodInfo_StockList_20211208.xlsx
+++ b/GoodInfo_StockList_20211208.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RayWu\OneDrive - AAEON Technology\_OLD\Documents\Python\GoodInfo_v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ray\Documents\Python\GoodInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_186DA00D414EC20E62355476585DCE3A8747F7DA" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F3C4C2DF-807C-4E7D-B1F7-E630C6AF0E16}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11856"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
   <si>
     <t>代號</t>
   </si>
@@ -61,154 +60,187 @@
     <t>連續分數</t>
   </si>
   <si>
+    <t>宏亞</t>
+  </si>
+  <si>
+    <t>left_only</t>
+  </si>
+  <si>
+    <t>鉅祥</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>中租-KY</t>
+  </si>
+  <si>
+    <t>精成科</t>
+  </si>
+  <si>
+    <t>三福化</t>
+  </si>
+  <si>
+    <t>華孚</t>
+  </si>
+  <si>
+    <t>台勝科</t>
+  </si>
+  <si>
+    <t>華擎</t>
+  </si>
+  <si>
+    <t>倍微</t>
+  </si>
+  <si>
+    <t>晶宏</t>
+  </si>
+  <si>
     <t>奇鋐</t>
   </si>
   <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>三福化</t>
+    <t>中美晶</t>
+  </si>
+  <si>
+    <t>怡利電</t>
+  </si>
+  <si>
+    <t>元太</t>
+  </si>
+  <si>
+    <t>新美齊</t>
+  </si>
+  <si>
+    <t>光罩</t>
+  </si>
+  <si>
+    <t>錸寶</t>
+  </si>
+  <si>
+    <t>至上</t>
+  </si>
+  <si>
+    <t>技嘉</t>
+  </si>
+  <si>
+    <t>元山</t>
+  </si>
+  <si>
+    <t>力肯</t>
   </si>
   <si>
     <t>南亞</t>
   </si>
   <si>
-    <t>台勝科</t>
-  </si>
-  <si>
-    <t>光罩</t>
-  </si>
-  <si>
-    <t>中租-KY</t>
-  </si>
-  <si>
-    <t>元太</t>
+    <t>方土昶</t>
+  </si>
+  <si>
+    <t>瑞昱</t>
+  </si>
+  <si>
+    <t>台光電</t>
+  </si>
+  <si>
+    <t>金利</t>
   </si>
   <si>
     <t>惠特</t>
   </si>
   <si>
-    <t>left_only</t>
-  </si>
-  <si>
-    <t>晶宏</t>
-  </si>
-  <si>
-    <t>鉅祥</t>
+    <t>欣興</t>
+  </si>
+  <si>
+    <t>昇達科</t>
+  </si>
+  <si>
+    <t>茂矽</t>
+  </si>
+  <si>
+    <t>加高</t>
+  </si>
+  <si>
+    <t>長榮航</t>
+  </si>
+  <si>
+    <t>和成</t>
+  </si>
+  <si>
+    <t>中電</t>
+  </si>
+  <si>
+    <t>瀚荃</t>
+  </si>
+  <si>
+    <t>創惟</t>
+  </si>
+  <si>
+    <t>德微</t>
+  </si>
+  <si>
+    <t>立衛</t>
+  </si>
+  <si>
+    <t>佳能</t>
+  </si>
+  <si>
+    <t>立碁</t>
+  </si>
+  <si>
+    <t>亞信</t>
+  </si>
+  <si>
+    <t>無敵</t>
+  </si>
+  <si>
+    <t>萬泰科</t>
   </si>
   <si>
     <t>合晶</t>
   </si>
   <si>
-    <t>金利</t>
-  </si>
-  <si>
-    <t>怡利電</t>
-  </si>
-  <si>
-    <t>台光電</t>
+    <t>萬旭</t>
   </si>
   <si>
     <t>詮欣</t>
   </si>
   <si>
-    <t>萬泰科</t>
-  </si>
-  <si>
-    <t>茂矽</t>
-  </si>
-  <si>
-    <t>和成</t>
-  </si>
-  <si>
-    <t>德微</t>
-  </si>
-  <si>
-    <t>長榮航</t>
-  </si>
-  <si>
-    <t>立衛</t>
-  </si>
-  <si>
-    <t>華孚</t>
-  </si>
-  <si>
-    <t>精成科</t>
-  </si>
-  <si>
-    <t>方土昶</t>
-  </si>
-  <si>
-    <t>中美晶</t>
-  </si>
-  <si>
-    <t>瀚荃</t>
-  </si>
-  <si>
-    <t>加高</t>
-  </si>
-  <si>
-    <t>無敵</t>
-  </si>
-  <si>
-    <t>昇達科</t>
-  </si>
-  <si>
-    <t>中電</t>
-  </si>
-  <si>
-    <t>亞信</t>
-  </si>
-  <si>
-    <t>新美齊</t>
-  </si>
-  <si>
-    <t>欣興</t>
+    <t>達興材料</t>
+  </si>
+  <si>
+    <t>帆宣</t>
+  </si>
+  <si>
+    <t>光頡</t>
+  </si>
+  <si>
+    <t>景碩</t>
+  </si>
+  <si>
+    <t>系統電</t>
+  </si>
+  <si>
+    <t>力特</t>
+  </si>
+  <si>
+    <t>華航</t>
+  </si>
+  <si>
+    <t>遠雄港</t>
+  </si>
+  <si>
+    <t>南電</t>
   </si>
   <si>
     <t>晶焱</t>
   </si>
   <si>
-    <t>達興材料</t>
-  </si>
-  <si>
-    <t>力肯</t>
-  </si>
-  <si>
-    <t>佳能</t>
-  </si>
-  <si>
-    <t>技嘉</t>
-  </si>
-  <si>
-    <t>華航</t>
-  </si>
-  <si>
-    <t>景碩</t>
-  </si>
-  <si>
-    <t>創惟</t>
-  </si>
-  <si>
-    <t>遠雄港</t>
-  </si>
-  <si>
-    <t>光頡</t>
-  </si>
-  <si>
-    <t>帆宣</t>
+    <t>嘉晶</t>
   </si>
   <si>
     <t>精星</t>
   </si>
   <si>
-    <t>嘉晶</t>
-  </si>
-  <si>
     <t>同欣電</t>
-  </si>
-  <si>
-    <t>南電</t>
   </si>
   <si>
     <t>台嘉碩</t>
@@ -221,7 +253,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -586,11 +618,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -624,7 +656,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -641,34 +673,34 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>6706</v>
+        <v>1236</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>235.5</v>
+        <v>25.7</v>
       </c>
       <c r="E2">
-        <v>2.09</v>
+        <v>21.4</v>
       </c>
       <c r="F2">
-        <v>5.0199999999999996</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="G2">
-        <v>21.2</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H2">
-        <v>17.7</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I2">
-        <v>4.18</v>
+        <v>5.39</v>
       </c>
       <c r="J2">
-        <v>4.16</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="L2">
         <v>5</v>
@@ -677,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O2">
         <v>10</v>
@@ -685,87 +717,87 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>3141</v>
+        <v>1303</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>285</v>
+        <v>93.1</v>
       </c>
       <c r="E3">
-        <v>5.09</v>
+        <v>1.2</v>
       </c>
       <c r="F3">
-        <v>13.7</v>
+        <v>1.32</v>
       </c>
       <c r="G3">
-        <v>6.84</v>
+        <v>10.4</v>
       </c>
       <c r="H3">
-        <v>0.64</v>
+        <v>3.32</v>
       </c>
       <c r="I3">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="J3">
-        <v>0.05</v>
-      </c>
-      <c r="K3">
-        <v>2.5</v>
+        <v>-0.04</v>
       </c>
       <c r="L3">
         <v>5</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O3">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>5383</v>
+        <v>1570</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>49.1</v>
+        <v>28.45</v>
       </c>
       <c r="E4">
-        <v>20.2</v>
+        <v>8.49</v>
       </c>
       <c r="F4">
-        <v>15.7</v>
+        <v>7.38</v>
       </c>
       <c r="G4">
-        <v>14.3</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="H4">
-        <v>8.82</v>
-      </c>
-      <c r="K4">
+        <v>2.59</v>
+      </c>
+      <c r="I4">
+        <v>-0.19</v>
+      </c>
+      <c r="J4">
+        <v>0.23</v>
+      </c>
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="L4">
-        <v>4</v>
-      </c>
       <c r="M4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O4">
         <v>8</v>
@@ -773,498 +805,513 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>6191</v>
+        <v>1611</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>42.05</v>
+        <v>19.3</v>
       </c>
       <c r="E5">
-        <v>7.63</v>
+        <v>10.9</v>
       </c>
       <c r="F5">
-        <v>8.9</v>
+        <v>25.2</v>
       </c>
       <c r="G5">
-        <v>-2.91</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H5">
-        <v>-2.99</v>
+        <v>-0.05</v>
       </c>
       <c r="I5">
-        <v>0.09</v>
+        <v>3.96</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>8182</v>
+        <v>1810</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>64.5</v>
+        <v>17.45</v>
       </c>
       <c r="E6">
-        <v>5.09</v>
+        <v>0.93</v>
       </c>
       <c r="F6">
-        <v>1.35</v>
+        <v>-0.31</v>
       </c>
       <c r="G6">
-        <v>5.19</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>-5.0599999999999996</v>
+        <v>3.15</v>
       </c>
       <c r="I6">
-        <v>-0.57999999999999996</v>
+        <v>0.03</v>
       </c>
       <c r="J6">
-        <v>-0.73</v>
+        <v>0.08</v>
       </c>
       <c r="K6">
         <v>2.5</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>3491</v>
+        <v>2338</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="E7">
-        <v>12.7</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="F7">
-        <v>14.1</v>
+        <v>9.27</v>
       </c>
       <c r="G7">
-        <v>-2.31</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="H7">
-        <v>1.57</v>
+        <v>3.5</v>
       </c>
       <c r="I7">
-        <v>-3.57</v>
+        <v>1.86</v>
       </c>
       <c r="J7">
-        <v>-3.23</v>
+        <v>5.42</v>
       </c>
       <c r="K7">
         <v>2.5</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>1570</v>
+        <v>2342</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>28.45</v>
+        <v>57</v>
       </c>
       <c r="E8">
-        <v>8.49</v>
+        <v>7.91</v>
       </c>
       <c r="F8">
-        <v>7.38</v>
+        <v>7.47</v>
       </c>
       <c r="G8">
-        <v>-0.46</v>
+        <v>-1.56</v>
       </c>
       <c r="H8">
-        <v>-2.4</v>
+        <v>0.26</v>
       </c>
       <c r="I8">
-        <v>-0.27</v>
+        <v>1.63</v>
       </c>
       <c r="J8">
-        <v>-0.22</v>
+        <v>1.66</v>
+      </c>
+      <c r="K8">
+        <v>2.5</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O8">
-        <v>-2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>148</v>
+        <v>25.45</v>
       </c>
       <c r="E9">
-        <v>1.06</v>
+        <v>0.21</v>
       </c>
       <c r="F9">
-        <v>2.52</v>
+        <v>-1.65</v>
       </c>
       <c r="G9">
-        <v>-4.34</v>
+        <v>6.04</v>
       </c>
       <c r="H9">
-        <v>-7.63</v>
+        <v>3.22</v>
       </c>
       <c r="I9">
-        <v>-0.02</v>
+        <v>-1.23</v>
       </c>
       <c r="J9">
-        <v>-0.16</v>
+        <v>-1.17</v>
+      </c>
+      <c r="K9">
+        <v>2.8</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="M9">
         <v>-1</v>
       </c>
       <c r="N9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O9">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>3189</v>
+        <v>2376</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>257.5</v>
+        <v>148</v>
       </c>
       <c r="E10">
-        <v>-1.66</v>
+        <v>1.06</v>
       </c>
       <c r="F10">
-        <v>3.95</v>
+        <v>2.52</v>
       </c>
       <c r="G10">
-        <v>2.39</v>
+        <v>11.2</v>
       </c>
       <c r="H10">
-        <v>-1.33</v>
+        <v>11.1</v>
       </c>
       <c r="I10">
-        <v>-2.31</v>
+        <v>2.41</v>
       </c>
       <c r="J10">
-        <v>-5.46</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O10">
-        <v>-2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>6104</v>
+        <v>2379</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>204.5</v>
+        <v>621</v>
       </c>
       <c r="E11">
-        <v>6.56</v>
+        <v>1.8</v>
       </c>
       <c r="F11">
-        <v>0.52</v>
+        <v>2.91</v>
       </c>
       <c r="G11">
-        <v>-1.49</v>
+        <v>23.8</v>
       </c>
       <c r="H11">
-        <v>-1.93</v>
+        <v>22</v>
       </c>
       <c r="I11">
-        <v>-0.83</v>
+        <v>-0.25</v>
       </c>
       <c r="J11">
-        <v>-0.95</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K11">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O11">
-        <v>-2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>5607</v>
+        <v>2383</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D12">
-        <v>64.900000000000006</v>
+        <v>293.5</v>
       </c>
       <c r="E12">
-        <v>10.1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>5.86</v>
+        <v>0.18</v>
       </c>
       <c r="G12">
-        <v>-5.79</v>
+        <v>23.2</v>
       </c>
       <c r="H12">
-        <v>-9.2799999999999994</v>
+        <v>15.9</v>
       </c>
       <c r="I12">
-        <v>-1.87</v>
+        <v>0.98</v>
       </c>
       <c r="J12">
-        <v>-4.0999999999999996</v>
+        <v>-1.4</v>
+      </c>
+      <c r="K12">
+        <v>2.9</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O12">
-        <v>-2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>3624</v>
+        <v>2442</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>57.8</v>
+        <v>13.75</v>
       </c>
       <c r="E13">
-        <v>12.2</v>
+        <v>16.7</v>
       </c>
       <c r="F13">
-        <v>7.44</v>
+        <v>17.2</v>
       </c>
       <c r="G13">
-        <v>-5</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="H13">
-        <v>-5.69</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I13">
-        <v>-0.67</v>
+        <v>2.29</v>
       </c>
       <c r="J13">
-        <v>-2.8</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O13">
-        <v>-2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>6271</v>
+        <v>2476</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>323.5</v>
+        <v>69</v>
       </c>
       <c r="E14">
-        <v>-0.85</v>
+        <v>3.33</v>
       </c>
       <c r="F14">
-        <v>-1.35</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="G14">
-        <v>-3.86</v>
+        <v>12.7</v>
       </c>
       <c r="H14">
-        <v>0.15</v>
+        <v>15.9</v>
       </c>
       <c r="I14">
-        <v>-3.62</v>
+        <v>0.4</v>
       </c>
       <c r="J14">
-        <v>-3.96</v>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K14">
+        <v>2.5</v>
       </c>
       <c r="L14">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O14">
-        <v>-6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>3221</v>
+        <v>2497</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>47.6</v>
+        <v>82</v>
       </c>
       <c r="E15">
-        <v>-1.38</v>
+        <v>15.4</v>
       </c>
       <c r="F15">
-        <v>-1.95</v>
+        <v>18.8</v>
       </c>
       <c r="G15">
-        <v>-4.8</v>
+        <v>4.88</v>
       </c>
       <c r="H15">
-        <v>-5.35</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="I15">
-        <v>-0.62</v>
+        <v>1.64</v>
       </c>
       <c r="J15">
-        <v>-0.63</v>
+        <v>0.77</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
       </c>
       <c r="L15">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="M15">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O15">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1272,169 +1319,175 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>3017</v>
+        <v>2610</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D16">
-        <v>92.3</v>
+        <v>31.15</v>
       </c>
       <c r="E16">
-        <v>1.82</v>
+        <v>10.5</v>
       </c>
       <c r="F16">
-        <v>0.9</v>
+        <v>5.56</v>
       </c>
       <c r="G16">
-        <v>9.48</v>
+        <v>-2.39</v>
       </c>
       <c r="H16">
-        <v>1.92</v>
+        <v>-5.0199999999999996</v>
       </c>
       <c r="I16">
-        <v>0.53</v>
+        <v>-2.16</v>
       </c>
       <c r="J16">
-        <v>0.17</v>
+        <v>-4.58</v>
       </c>
       <c r="K16">
         <v>2.8</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="N16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O16">
-        <v>10</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>4755</v>
+        <v>2618</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D17">
-        <v>101</v>
+        <v>29.4</v>
       </c>
       <c r="E17">
-        <v>15.2</v>
+        <v>13.9</v>
       </c>
       <c r="F17">
-        <v>22.1</v>
+        <v>10.8</v>
       </c>
       <c r="G17">
-        <v>4.17</v>
+        <v>6.56</v>
       </c>
       <c r="H17">
-        <v>3.77</v>
+        <v>3.23</v>
       </c>
       <c r="I17">
-        <v>1.27</v>
+        <v>-4.72</v>
       </c>
       <c r="J17">
-        <v>1.28</v>
+        <v>-3.08</v>
+      </c>
+      <c r="K17">
+        <v>2.5</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O17">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>1303</v>
+        <v>3016</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="D18">
-        <v>93.1</v>
+        <v>154.5</v>
       </c>
       <c r="E18">
-        <v>1.2</v>
+        <v>-1.63</v>
       </c>
       <c r="F18">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="G18">
-        <v>2.4500000000000002</v>
+        <v>-0.72</v>
       </c>
       <c r="H18">
-        <v>3.53</v>
+        <v>-0.53</v>
       </c>
       <c r="I18">
-        <v>0.06</v>
+        <v>-2.62</v>
       </c>
       <c r="J18">
-        <v>0.2</v>
+        <v>-5.45</v>
+      </c>
+      <c r="K18">
+        <v>2.9</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="N18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O18">
-        <v>10</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>3532</v>
+        <v>3017</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>298</v>
+        <v>92.3</v>
       </c>
       <c r="E19">
-        <v>16.600000000000001</v>
+        <v>1.82</v>
       </c>
       <c r="F19">
-        <v>12.9</v>
+        <v>0.9</v>
       </c>
       <c r="G19">
-        <v>10.4</v>
+        <v>2.73</v>
       </c>
       <c r="H19">
-        <v>1.67</v>
+        <v>7.55</v>
       </c>
       <c r="I19">
-        <v>3.76</v>
+        <v>0.16</v>
       </c>
       <c r="J19">
-        <v>4.71</v>
+        <v>0.23</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L19">
         <v>5</v>
@@ -1443,7 +1496,7 @@
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O19">
         <v>10</v>
@@ -1451,128 +1504,128 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>2338</v>
+        <v>3037</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D20">
-        <v>117</v>
+        <v>229.5</v>
       </c>
       <c r="E20">
-        <v>2.2799999999999998</v>
+        <v>1.61</v>
       </c>
       <c r="F20">
-        <v>9.27</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="G20">
-        <v>1.47</v>
+        <v>9.4</v>
       </c>
       <c r="H20">
-        <v>1.77</v>
+        <v>3.69</v>
       </c>
       <c r="I20">
-        <v>3.29</v>
+        <v>0.7</v>
       </c>
       <c r="J20">
-        <v>2.85</v>
+        <v>1.5</v>
       </c>
       <c r="K20">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="L20">
         <v>5</v>
       </c>
       <c r="M20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O20">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>5871</v>
+        <v>3051</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D21">
-        <v>283.5</v>
+        <v>13.9</v>
       </c>
       <c r="E21">
-        <v>3.13</v>
+        <v>23.7</v>
       </c>
       <c r="F21">
-        <v>4.9800000000000004</v>
+        <v>21</v>
       </c>
       <c r="G21">
-        <v>11.7</v>
+        <v>-0.72</v>
       </c>
       <c r="H21">
-        <v>8.0500000000000007</v>
+        <v>-2.06</v>
       </c>
       <c r="I21">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N21" t="s">
         <v>14</v>
       </c>
       <c r="O21">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>8069</v>
+        <v>3141</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D22">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="E22">
-        <v>4.72</v>
+        <v>5.09</v>
       </c>
       <c r="F22">
-        <v>9.02</v>
+        <v>13.7</v>
       </c>
       <c r="G22">
-        <v>1.76</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="H22">
-        <v>1.98</v>
+        <v>5.03</v>
       </c>
       <c r="I22">
-        <v>1.87</v>
+        <v>0.18</v>
       </c>
       <c r="J22">
-        <v>1.64</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="K22">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="L22">
         <v>5</v>
@@ -1589,87 +1642,87 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>2476</v>
+        <v>3169</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D23">
-        <v>69</v>
+        <v>299.5</v>
       </c>
       <c r="E23">
-        <v>3.33</v>
+        <v>0.37</v>
       </c>
       <c r="F23">
-        <v>4.6500000000000004</v>
+        <v>1.67</v>
       </c>
       <c r="G23">
-        <v>12.6</v>
+        <v>-1.83</v>
       </c>
       <c r="H23">
-        <v>10.7</v>
+        <v>-1.79</v>
       </c>
       <c r="I23">
-        <v>0.35</v>
+        <v>2.17</v>
       </c>
       <c r="J23">
-        <v>0.45</v>
+        <v>1.69</v>
       </c>
       <c r="K23">
+        <v>2.9</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23">
         <v>2</v>
-      </c>
-      <c r="L23">
-        <v>5</v>
-      </c>
-      <c r="M23">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O23">
-        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>6182</v>
+        <v>3189</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D24">
-        <v>89.5</v>
+        <v>257.5</v>
       </c>
       <c r="E24">
-        <v>2.2000000000000002</v>
+        <v>-1.66</v>
       </c>
       <c r="F24">
-        <v>1.96</v>
+        <v>3.95</v>
       </c>
       <c r="G24">
-        <v>0.9</v>
+        <v>-8.9</v>
       </c>
       <c r="H24">
-        <v>1.29</v>
+        <v>7.1</v>
       </c>
       <c r="I24">
-        <v>-1.68</v>
+        <v>-5.41</v>
       </c>
       <c r="J24">
-        <v>0.23</v>
+        <v>1.71</v>
       </c>
       <c r="K24">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="M24">
         <v>5</v>
@@ -1678,92 +1731,92 @@
         <v>14</v>
       </c>
       <c r="O24">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>2497</v>
+        <v>3221</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D25">
-        <v>82</v>
+        <v>47.6</v>
       </c>
       <c r="E25">
-        <v>15.4</v>
+        <v>-1.38</v>
       </c>
       <c r="F25">
-        <v>18.8</v>
+        <v>-1.95</v>
       </c>
       <c r="G25">
-        <v>7.92</v>
+        <v>-5.15</v>
       </c>
       <c r="H25">
-        <v>7.09</v>
+        <v>-3.01</v>
       </c>
       <c r="I25">
-        <v>2.82</v>
+        <v>-2.6</v>
       </c>
       <c r="J25">
-        <v>-2.0699999999999998</v>
+        <v>1.19</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="N25" t="s">
         <v>14</v>
       </c>
       <c r="O25">
-        <v>8</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>2383</v>
+        <v>3491</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D26">
-        <v>293.5</v>
+        <v>188</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>12.7</v>
       </c>
       <c r="F26">
-        <v>0.18</v>
+        <v>14.1</v>
       </c>
       <c r="G26">
-        <v>21.8</v>
+        <v>3.72</v>
       </c>
       <c r="H26">
-        <v>21.5</v>
+        <v>1.94</v>
       </c>
       <c r="I26">
-        <v>0.93</v>
+        <v>-1.65</v>
       </c>
       <c r="J26">
-        <v>-3.15</v>
+        <v>-8.14</v>
       </c>
       <c r="K26">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M26">
         <v>3</v>
@@ -1772,318 +1825,315 @@
         <v>14</v>
       </c>
       <c r="O26">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>6205</v>
+        <v>3515</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>67.8</v>
+        <v>286.5</v>
       </c>
       <c r="E27">
-        <v>5.48</v>
+        <v>14.4</v>
       </c>
       <c r="F27">
-        <v>8.07</v>
+        <v>14.6</v>
       </c>
       <c r="G27">
-        <v>1.38</v>
+        <v>4.26</v>
       </c>
       <c r="H27">
-        <v>-1.76</v>
+        <v>3.14</v>
       </c>
       <c r="I27">
-        <v>7.16</v>
+        <v>2.84</v>
       </c>
       <c r="J27">
-        <v>5.42</v>
+        <v>1.27</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>5</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
         <v>14</v>
       </c>
       <c r="O27">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>6190</v>
+        <v>3532</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>40.35</v>
+        <v>298</v>
       </c>
       <c r="E28">
-        <v>18.7</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="F28">
-        <v>8.61</v>
+        <v>12.9</v>
       </c>
       <c r="G28">
-        <v>-0.95</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H28">
-        <v>0.32</v>
+        <v>2.08</v>
       </c>
       <c r="I28">
-        <v>6.42</v>
+        <v>10.9</v>
       </c>
       <c r="J28">
-        <v>15.4</v>
+        <v>11.6</v>
       </c>
       <c r="K28">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M28">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O28">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>2342</v>
+        <v>3624</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D29">
-        <v>57</v>
+        <v>57.8</v>
       </c>
       <c r="E29">
-        <v>7.91</v>
+        <v>12.2</v>
       </c>
       <c r="F29">
-        <v>7.47</v>
+        <v>7.44</v>
       </c>
       <c r="G29">
-        <v>0.43</v>
+        <v>-0.6</v>
       </c>
       <c r="H29">
-        <v>-1.9</v>
+        <v>-1.93</v>
       </c>
       <c r="I29">
-        <v>2.8</v>
+        <v>0.45</v>
       </c>
       <c r="J29">
-        <v>2.11</v>
-      </c>
-      <c r="K29">
-        <v>2.5</v>
+        <v>-0.21</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N29" t="s">
         <v>14</v>
       </c>
       <c r="O29">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>1810</v>
+        <v>3675</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D30">
-        <v>17.45</v>
+        <v>309</v>
       </c>
       <c r="E30">
-        <v>0.93</v>
+        <v>-0.71</v>
       </c>
       <c r="F30">
-        <v>-0.31</v>
+        <v>5.49</v>
       </c>
       <c r="G30">
-        <v>21.8</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="H30">
-        <v>10.3</v>
+        <v>1.69</v>
       </c>
       <c r="I30">
-        <v>0.1</v>
+        <v>-1.96</v>
       </c>
       <c r="J30">
-        <v>0.15</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K30">
         <v>2.8</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O30">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>3675</v>
+        <v>4755</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D31">
-        <v>309</v>
+        <v>101</v>
       </c>
       <c r="E31">
-        <v>-0.71</v>
+        <v>15.2</v>
       </c>
       <c r="F31">
-        <v>5.49</v>
+        <v>22.1</v>
       </c>
       <c r="G31">
-        <v>3.54</v>
+        <v>1.69</v>
       </c>
       <c r="H31">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="I31">
-        <v>3.27</v>
+        <v>1.2</v>
       </c>
       <c r="J31">
-        <v>2.19</v>
-      </c>
-      <c r="K31">
-        <v>2.8</v>
+        <v>1.43</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M31">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O31">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>2618</v>
+        <v>5234</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D32">
-        <v>29.4</v>
+        <v>140.5</v>
       </c>
       <c r="E32">
-        <v>13.9</v>
+        <v>9.02</v>
       </c>
       <c r="F32">
-        <v>10.8</v>
+        <v>19.8</v>
       </c>
       <c r="G32">
-        <v>3.5</v>
+        <v>-3.97</v>
       </c>
       <c r="H32">
-        <v>2.69</v>
+        <v>-1.52</v>
       </c>
       <c r="I32">
-        <v>-2.82</v>
+        <v>0.05</v>
       </c>
       <c r="J32">
-        <v>-0.45</v>
+        <v>-0.08</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="N32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O32">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>5344</v>
+        <v>5309</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D33">
-        <v>38.1</v>
+        <v>47.5</v>
       </c>
       <c r="E33">
-        <v>20.9</v>
+        <v>1.46</v>
       </c>
       <c r="F33">
-        <v>25.5</v>
+        <v>4.03</v>
       </c>
       <c r="G33">
-        <v>0.54</v>
+        <v>-4.8</v>
       </c>
       <c r="H33">
-        <v>-1.18</v>
+        <v>-2.4</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2092,112 +2142,100 @@
         <v>14</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>6235</v>
+        <v>5344</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D34">
-        <v>30.85</v>
+        <v>38.1</v>
       </c>
       <c r="E34">
-        <v>16.5</v>
+        <v>20.9</v>
       </c>
       <c r="F34">
-        <v>24.3</v>
+        <v>25.5</v>
       </c>
       <c r="G34">
-        <v>-0.16</v>
+        <v>-1.03</v>
       </c>
       <c r="H34">
-        <v>-0.17</v>
-      </c>
-      <c r="I34">
-        <v>3.63</v>
-      </c>
-      <c r="J34">
-        <v>6.71</v>
+        <v>0.26</v>
       </c>
       <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
         <v>4</v>
       </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
       <c r="N34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O34">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>6265</v>
+        <v>5383</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D35">
-        <v>20.95</v>
+        <v>49.1</v>
       </c>
       <c r="E35">
-        <v>3.4</v>
+        <v>20.2</v>
       </c>
       <c r="F35">
-        <v>24.6</v>
+        <v>15.7</v>
       </c>
       <c r="G35">
-        <v>-0.35</v>
+        <v>10.7</v>
       </c>
       <c r="H35">
-        <v>-0.23</v>
-      </c>
-      <c r="I35">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="J35">
-        <v>3.21</v>
+        <v>8.94</v>
       </c>
       <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
         <v>4</v>
       </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
       <c r="M35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
         <v>14</v>
       </c>
       <c r="O35">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>5483</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D36">
         <v>225</v>
@@ -2209,66 +2247,69 @@
         <v>6.05</v>
       </c>
       <c r="G36">
-        <v>-1.34</v>
+        <v>6.17</v>
       </c>
       <c r="H36">
-        <v>-2.85</v>
+        <v>5.6</v>
       </c>
       <c r="I36">
-        <v>0.03</v>
+        <v>0.66</v>
       </c>
       <c r="J36">
-        <v>0.19</v>
+        <v>0.71</v>
       </c>
       <c r="K36">
         <v>2</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O36">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>8103</v>
+        <v>5607</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D37">
-        <v>53.7</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="E37">
-        <v>2.14</v>
+        <v>10.1</v>
       </c>
       <c r="F37">
-        <v>2.14</v>
+        <v>5.86</v>
       </c>
       <c r="G37">
-        <v>3.74</v>
+        <v>-5.44</v>
       </c>
       <c r="H37">
-        <v>-5.41</v>
+        <v>-13.5</v>
       </c>
       <c r="I37">
-        <v>-0.72</v>
+        <v>-2.15</v>
       </c>
       <c r="J37">
-        <v>-1.45</v>
+        <v>-3.21</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M37">
         <v>-1</v>
@@ -2277,130 +2318,133 @@
         <v>14</v>
       </c>
       <c r="O37">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>8201</v>
+        <v>5871</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D38">
-        <v>19.3</v>
+        <v>283.5</v>
       </c>
       <c r="E38">
-        <v>2.65</v>
+        <v>3.13</v>
       </c>
       <c r="F38">
-        <v>2.35</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="G38">
-        <v>1.2</v>
+        <v>15.3</v>
       </c>
       <c r="H38">
-        <v>-0.03</v>
+        <v>13.5</v>
       </c>
       <c r="I38">
-        <v>-2.82</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="J38">
-        <v>-4.5999999999999996</v>
+        <v>0.85</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O38">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>1611</v>
+        <v>6104</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D39">
-        <v>19.3</v>
+        <v>204.5</v>
       </c>
       <c r="E39">
-        <v>10.9</v>
+        <v>6.56</v>
       </c>
       <c r="F39">
-        <v>25.2</v>
+        <v>0.52</v>
       </c>
       <c r="G39">
-        <v>-0.44</v>
+        <v>5.12</v>
       </c>
       <c r="H39">
-        <v>-0.65</v>
+        <v>-1.34</v>
       </c>
       <c r="I39">
-        <v>1.68</v>
+        <v>0.15</v>
       </c>
       <c r="J39">
-        <v>6.8</v>
+        <v>-4.0599999999999996</v>
+      </c>
+      <c r="K39">
+        <v>2.8</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N39" t="s">
         <v>14</v>
       </c>
       <c r="O39">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>3169</v>
+        <v>6134</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D40">
-        <v>299.5</v>
+        <v>32.1</v>
       </c>
       <c r="E40">
-        <v>0.37</v>
+        <v>32.9</v>
       </c>
       <c r="F40">
-        <v>1.67</v>
+        <v>60.5</v>
       </c>
       <c r="G40">
-        <v>-0.23</v>
+        <v>-1.64</v>
       </c>
       <c r="H40">
-        <v>-0.56999999999999995</v>
+        <v>-1.04</v>
       </c>
       <c r="I40">
-        <v>3.32</v>
+        <v>7.28</v>
       </c>
       <c r="J40">
-        <v>5.51</v>
-      </c>
-      <c r="K40">
-        <v>3</v>
+        <v>17.7</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -2417,43 +2461,46 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>2442</v>
+        <v>6182</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D41">
-        <v>13.75</v>
+        <v>89.5</v>
       </c>
       <c r="E41">
-        <v>16.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F41">
-        <v>17.2</v>
+        <v>1.96</v>
       </c>
       <c r="G41">
-        <v>-0.39</v>
+        <v>2.6</v>
       </c>
       <c r="H41">
-        <v>-2.66</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="I41">
-        <v>2.08</v>
+        <v>-1.06</v>
       </c>
       <c r="J41">
-        <v>2.33</v>
+        <v>-2.62</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N41" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O41">
         <v>2</v>
@@ -2461,363 +2508,360 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>3037</v>
+        <v>6190</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D42">
-        <v>229.5</v>
+        <v>40.35</v>
       </c>
       <c r="E42">
-        <v>1.61</v>
+        <v>18.7</v>
       </c>
       <c r="F42">
-        <v>-1.1200000000000001</v>
+        <v>8.61</v>
       </c>
       <c r="G42">
-        <v>4.74</v>
+        <v>-0.04</v>
       </c>
       <c r="H42">
-        <v>-3.74</v>
+        <v>-0.87</v>
       </c>
       <c r="I42">
-        <v>0.72</v>
+        <v>7.79</v>
       </c>
       <c r="J42">
-        <v>-1.02</v>
+        <v>12.6</v>
       </c>
       <c r="K42">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>6411</v>
+        <v>6191</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D43">
-        <v>302</v>
+        <v>42.05</v>
       </c>
       <c r="E43">
-        <v>-0.9</v>
+        <v>7.63</v>
       </c>
       <c r="F43">
-        <v>-0.9</v>
+        <v>8.9</v>
       </c>
       <c r="G43">
-        <v>10</v>
+        <v>3.66</v>
       </c>
       <c r="H43">
-        <v>4.9400000000000004</v>
+        <v>4.76</v>
       </c>
       <c r="I43">
-        <v>1.35</v>
+        <v>0.52</v>
       </c>
       <c r="J43">
-        <v>-0.36</v>
+        <v>0.52</v>
       </c>
       <c r="K43">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M43">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
         <v>14</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>5234</v>
+        <v>6196</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D44">
-        <v>140.5</v>
+        <v>165</v>
       </c>
       <c r="E44">
-        <v>9.02</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>19.8</v>
+        <v>0.65</v>
       </c>
       <c r="G44">
-        <v>-3.37</v>
+        <v>2.6</v>
       </c>
       <c r="H44">
-        <v>-0.28000000000000003</v>
+        <v>-1.87</v>
       </c>
       <c r="I44">
-        <v>-0.01</v>
+        <v>-1.04</v>
       </c>
       <c r="J44">
-        <v>-0.08</v>
+        <v>-2.2799999999999998</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <v>-1</v>
       </c>
       <c r="N44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O44">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>2374</v>
+        <v>6205</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D45">
-        <v>25.45</v>
+        <v>67.8</v>
       </c>
       <c r="E45">
-        <v>0.21</v>
+        <v>5.48</v>
       </c>
       <c r="F45">
-        <v>-1.65</v>
+        <v>8.07</v>
       </c>
       <c r="G45">
-        <v>0.01</v>
+        <v>-0.12</v>
       </c>
       <c r="H45">
-        <v>-1.44</v>
+        <v>-0.62</v>
       </c>
       <c r="I45">
-        <v>-1.08</v>
+        <v>4</v>
       </c>
       <c r="J45">
-        <v>-1.1299999999999999</v>
-      </c>
-      <c r="K45">
-        <v>2.8</v>
+        <v>4.21</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O45">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>2610</v>
+        <v>6235</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D46">
-        <v>31.15</v>
+        <v>30.85</v>
       </c>
       <c r="E46">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="F46">
-        <v>5.56</v>
+        <v>24.3</v>
       </c>
       <c r="G46">
-        <v>-4.2300000000000004</v>
+        <v>1.87</v>
       </c>
       <c r="H46">
-        <v>-5.88</v>
+        <v>1.39</v>
       </c>
       <c r="I46">
-        <v>-2.6</v>
+        <v>5.3</v>
       </c>
       <c r="J46">
-        <v>-5.7</v>
+        <v>5.17</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
       </c>
       <c r="L46">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M46">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O46">
-        <v>-2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>6196</v>
+        <v>6265</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D47">
-        <v>165</v>
+        <v>20.95</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="F47">
-        <v>0.65</v>
+        <v>24.6</v>
       </c>
       <c r="G47">
-        <v>-0.48</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>-1.7</v>
+        <v>0.97</v>
       </c>
       <c r="I47">
-        <v>-4.03</v>
+        <v>-2.25</v>
       </c>
       <c r="J47">
-        <v>-3.58</v>
+        <v>3.84</v>
       </c>
       <c r="K47">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="L47">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="M47">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O47">
-        <v>-4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>8183</v>
+        <v>6270</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D48">
-        <v>73</v>
+        <v>26.2</v>
       </c>
       <c r="E48">
-        <v>-3.16</v>
+        <v>14.3</v>
       </c>
       <c r="F48">
-        <v>-1.75</v>
+        <v>13.6</v>
       </c>
       <c r="G48">
-        <v>0.24</v>
+        <v>2.33</v>
       </c>
       <c r="H48">
-        <v>-1.0900000000000001</v>
+        <v>2.67</v>
       </c>
       <c r="I48">
-        <v>-1.22</v>
+        <v>0.32</v>
       </c>
       <c r="J48">
-        <v>2.06</v>
+        <v>0.32</v>
       </c>
       <c r="K48">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="L48">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M48">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
         <v>14</v>
       </c>
       <c r="O48">
-        <v>-4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>3016</v>
+        <v>6271</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D49">
-        <v>154.5</v>
+        <v>323.5</v>
       </c>
       <c r="E49">
-        <v>-1.63</v>
+        <v>-0.85</v>
       </c>
       <c r="F49">
-        <v>1.35</v>
+        <v>-1.35</v>
       </c>
       <c r="G49">
-        <v>-3.17</v>
+        <v>-12.3</v>
       </c>
       <c r="H49">
-        <v>-0.66</v>
+        <v>4.51</v>
       </c>
       <c r="I49">
-        <v>-2.62</v>
+        <v>-1.07</v>
       </c>
       <c r="J49">
-        <v>-4.97</v>
-      </c>
-      <c r="K49">
-        <v>2.9</v>
+        <v>-2.41</v>
       </c>
       <c r="L49">
         <v>-5</v>
@@ -2834,54 +2878,559 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>8046</v>
+        <v>6275</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D50">
-        <v>631</v>
+        <v>38</v>
       </c>
       <c r="E50">
-        <v>-2.66</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F50">
-        <v>-3.78</v>
+        <v>1.89</v>
       </c>
       <c r="G50">
-        <v>3.05</v>
+        <v>13.9</v>
       </c>
       <c r="H50">
-        <v>-5.95</v>
+        <v>4.53</v>
       </c>
       <c r="I50">
-        <v>-0.24</v>
+        <v>0.15</v>
       </c>
       <c r="J50">
-        <v>-4.51</v>
+        <v>-0.66</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
       </c>
       <c r="L50">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M50">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
         <v>14</v>
       </c>
       <c r="O50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>6411</v>
+      </c>
+      <c r="C51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51">
+        <v>302</v>
+      </c>
+      <c r="E51">
+        <v>-0.9</v>
+      </c>
+      <c r="F51">
+        <v>-0.9</v>
+      </c>
+      <c r="G51">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H51">
+        <v>3.02</v>
+      </c>
+      <c r="I51">
+        <v>-4.33</v>
+      </c>
+      <c r="J51">
+        <v>-2.48</v>
+      </c>
+      <c r="K51">
+        <v>2.8</v>
+      </c>
+      <c r="L51">
+        <v>-1</v>
+      </c>
+      <c r="M51">
+        <v>-1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>16</v>
+      </c>
+      <c r="O51">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>6706</v>
+      </c>
+      <c r="C52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52">
+        <v>235.5</v>
+      </c>
+      <c r="E52">
+        <v>2.09</v>
+      </c>
+      <c r="F52">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="G52">
+        <v>-2.13</v>
+      </c>
+      <c r="H52">
+        <v>1.41</v>
+      </c>
+      <c r="I52">
+        <v>2.76</v>
+      </c>
+      <c r="J52">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>14</v>
+      </c>
+      <c r="O52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>57</v>
+      </c>
+      <c r="B53">
+        <v>8046</v>
+      </c>
+      <c r="C53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53">
+        <v>631</v>
+      </c>
+      <c r="E53">
+        <v>-2.66</v>
+      </c>
+      <c r="F53">
+        <v>-3.78</v>
+      </c>
+      <c r="G53">
+        <v>0.04</v>
+      </c>
+      <c r="H53">
+        <v>0.34</v>
+      </c>
+      <c r="I53">
+        <v>-2.36</v>
+      </c>
+      <c r="J53">
+        <v>-0.33</v>
+      </c>
+      <c r="L53">
+        <v>-1</v>
+      </c>
+      <c r="M53">
+        <v>-1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>16</v>
+      </c>
+      <c r="O53">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>58</v>
+      </c>
+      <c r="B54">
+        <v>8069</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54">
+        <v>134</v>
+      </c>
+      <c r="E54">
+        <v>4.72</v>
+      </c>
+      <c r="F54">
+        <v>9.02</v>
+      </c>
+      <c r="G54">
+        <v>1.29</v>
+      </c>
+      <c r="H54">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="I54">
+        <v>1.7</v>
+      </c>
+      <c r="J54">
+        <v>3.71</v>
+      </c>
+      <c r="K54">
+        <v>2.9</v>
+      </c>
+      <c r="L54">
+        <v>5</v>
+      </c>
+      <c r="M54">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>16</v>
+      </c>
+      <c r="O54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <v>8103</v>
+      </c>
+      <c r="C55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55">
+        <v>53.7</v>
+      </c>
+      <c r="E55">
+        <v>2.14</v>
+      </c>
+      <c r="F55">
+        <v>2.14</v>
+      </c>
+      <c r="G55">
+        <v>0.35</v>
+      </c>
+      <c r="H55">
+        <v>0.36</v>
+      </c>
+      <c r="I55">
+        <v>-0.98</v>
+      </c>
+      <c r="J55">
+        <v>-0.78</v>
+      </c>
+      <c r="K55">
+        <v>2.5</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>16</v>
+      </c>
+      <c r="O55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>8104</v>
+      </c>
+      <c r="C56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56">
+        <v>66.5</v>
+      </c>
+      <c r="E56">
+        <v>16</v>
+      </c>
+      <c r="F56">
+        <v>27.7</v>
+      </c>
+      <c r="G56">
+        <v>0.84</v>
+      </c>
+      <c r="H56">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I56">
+        <v>9.26</v>
+      </c>
+      <c r="J56">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="L56">
+        <v>5</v>
+      </c>
+      <c r="M56">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>14</v>
+      </c>
+      <c r="O56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>61</v>
+      </c>
+      <c r="B57">
+        <v>8111</v>
+      </c>
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57">
+        <v>28.45</v>
+      </c>
+      <c r="E57">
+        <v>28</v>
+      </c>
+      <c r="F57">
+        <v>27.7</v>
+      </c>
+      <c r="G57">
+        <v>-0.72</v>
+      </c>
+      <c r="H57">
+        <v>-1.01</v>
+      </c>
+      <c r="I57">
+        <v>5.47</v>
+      </c>
+      <c r="J57">
+        <v>5.4</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>14</v>
+      </c>
+      <c r="O57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>62</v>
+      </c>
+      <c r="B58">
+        <v>8112</v>
+      </c>
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58">
+        <v>49.3</v>
+      </c>
+      <c r="E58">
+        <v>5.26</v>
+      </c>
+      <c r="F58">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="G58">
+        <v>19.3</v>
+      </c>
+      <c r="H58">
+        <v>14.2</v>
+      </c>
+      <c r="I58">
+        <v>0.3</v>
+      </c>
+      <c r="J58">
+        <v>0.3</v>
+      </c>
+      <c r="L58">
+        <v>5</v>
+      </c>
+      <c r="M58">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>14</v>
+      </c>
+      <c r="O58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>8182</v>
+      </c>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59">
+        <v>64.5</v>
+      </c>
+      <c r="E59">
+        <v>5.09</v>
+      </c>
+      <c r="F59">
+        <v>1.35</v>
+      </c>
+      <c r="G59">
+        <v>1.63</v>
+      </c>
+      <c r="H59">
+        <v>-6.41</v>
+      </c>
+      <c r="I59">
+        <v>2.25</v>
+      </c>
+      <c r="J59">
+        <v>1.41</v>
+      </c>
+      <c r="K59">
+        <v>2.5</v>
+      </c>
+      <c r="L59">
+        <v>5</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>14</v>
+      </c>
+      <c r="O59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>64</v>
+      </c>
+      <c r="B60">
+        <v>8183</v>
+      </c>
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60">
+        <v>73</v>
+      </c>
+      <c r="E60">
+        <v>-3.16</v>
+      </c>
+      <c r="F60">
+        <v>-1.75</v>
+      </c>
+      <c r="G60">
+        <v>0.92</v>
+      </c>
+      <c r="H60">
+        <v>-2.36</v>
+      </c>
+      <c r="I60">
+        <v>-1.22</v>
+      </c>
+      <c r="J60">
+        <v>-4.16</v>
+      </c>
+      <c r="K60">
+        <v>2.9</v>
+      </c>
+      <c r="L60">
+        <v>-1</v>
+      </c>
+      <c r="M60">
+        <v>-5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>16</v>
+      </c>
+      <c r="O60">
         <v>-6</v>
       </c>
     </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>65</v>
+      </c>
+      <c r="B61">
+        <v>8201</v>
+      </c>
+      <c r="C61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61">
+        <v>19.3</v>
+      </c>
+      <c r="E61">
+        <v>2.65</v>
+      </c>
+      <c r="F61">
+        <v>2.35</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>-0.37</v>
+      </c>
+      <c r="I61">
+        <v>0.76</v>
+      </c>
+      <c r="J61">
+        <v>-0.97</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>-1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>16</v>
+      </c>
+      <c r="O61">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:O50">
-    <sortCondition descending="1" ref="N1"/>
+  <sortState ref="A2:O67">
+    <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>